--- a/02_MasterWifoMannheim/99_Backup/Course142.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course142.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159DB203153EDF96A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C763170-C21A-4385-B80E-B9AEB5161C04}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 611 Sales Management and Customer Relationship Management Achtung: Kein Angebot im FSS 2021! Bitte belegen Sie stattdessen MKT 615.</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The module deals with the basic marketing task of serving, retaining and developing customers from an instrumental and strategic perspective. into the two components sales management and customer relationship management. Thereby, sales management deals with the fundamentals of channel design, the management of external sales partners and the internal sales force as well as the basics of personal selling. In the part customer relationship management, the students will learn how to achieve customer loyalty and how to increase the value of the customer relations from a long-term perspective.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students understand and can apply the instruments of sales management and customer relationship management. They are aware of the benefits and implications of long-term customer relationships and how these customer relationships can be managed actively. At the end of this module the students can apply their knowledge about sales strategies, concepts and instruments in practice.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.): 60%, Group work (Cases): 40%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dr. h.c. mult. Christian Homburg</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
-  </si>
-  <si>
-    <t>MKT 510</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MKT 611 Sales Management and Customer Relationship Management </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The module deals with the basic marketing task of serving, retaining and developing customers from an instrumental and strategic perspective. into the two components sales management and customer relationship management. Thereby, sales management deals with the fundamentals of channel design, the management of external sales partners and the internal sales force as well as the basics of personal selling. In the part customer relationship management, the students will learn how to achieve customer loyalty and how to increase the value of the customer relations from a long-term perspective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students understand and can apply the instruments of sales management and customer relationship management. They are aware of the benefits and implications of long-term customer relationships and how these customer relationships can be managed actively. At the end of this module the students can apply their knowledge about sales strategies, concepts and instruments in practice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MKT 510</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.): 60%, Group work (Cases): 40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Dr. h.c. mult. Christian Homburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
+        </is>
       </c>
     </row>
   </sheetData>
